--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_28_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_28_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64975.77772771886</v>
+        <v>12785351.0508381</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64975.77772771886</v>
+        <v>12785351.0508381</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>226973.7541138756</v>
+        <v>26178250.2392132</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>226973.7541138756</v>
+        <v>26178250.2392132</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1338544025.021251</v>
+        <v>26705986.78352655</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16725.0475216843</v>
+        <v>730243.5291890185</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31958.02078839153</v>
+        <v>1222846.780254281</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47303.40775757564</v>
+        <v>1715450.031319545</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62197.31070086949</v>
+        <v>2207917.296663307</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>77091.5600832612</v>
+        <v>2700421.284551444</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>91985.80946565291</v>
+        <v>3192925.27243958</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>106977.150071205</v>
+        <v>3879204.496041215</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>121649.0943590592</v>
+        <v>4501956.07125707</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>136264.0054459719</v>
+        <v>4920947.660459426</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>151177.1378148437</v>
+        <v>5416690.352347565</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>166071.2252935364</v>
+        <v>5909194.340235703</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>180965.4746759282</v>
+        <v>6401698.328123838</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>195859.7240583201</v>
+        <v>6894202.316011968</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>211171.4306565787</v>
+        <v>7276874.050600097</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>226344.9815647677</v>
+        <v>7507144.856497056</v>
       </c>
     </row>
   </sheetData>
